--- a/AfDD_2024_Annex_Table_Tab37.xlsx
+++ b/AfDD_2024_Annex_Table_Tab37.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D05122A-1093-4AB0-9BFE-D3DDF07D4E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C01CC55C-B941-4CE3-9408-5A90C1CCAC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{09D477D6-687F-4926-B4FA-EAE6515959A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5E01AE70-3E53-423F-B59B-C467CA9B3D3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab37" sheetId="1" r:id="rId1"/>
@@ -1439,7 +1439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDCDDEC-5ED0-4051-BBA1-F2AF1FF2317C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678D5220-A780-487B-824E-8EDD1D517FB0}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9696,12 +9696,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{29719B19-CEF3-4061-B2FE-C1F75DB4AB35}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{1748DA3A-3412-425F-B38A-883F9E18E1C2}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{A8475C15-B3E8-4738-80D6-CD7861A0CC9B}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{5AE7DB0E-04B5-415A-B911-EF46327C2124}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{C7DB5522-B70E-4B0A-BF95-8387E0BC3C4B}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{ABAB1B93-0E5A-4B23-9FEC-3A8E8E3FBB1A}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{7A4CE5F5-D123-48E3-9B35-459AEBEE2F70}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{54E7B354-BC87-46C3-94C9-F9AE4B7564A3}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{8D965FDF-07E0-4DC9-98A0-28916ABA38E0}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{F5C0D5D3-8C7C-4CE9-B75A-C084D10F0E00}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{19184548-527D-4EA1-8391-5A5833BCC562}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{41F33E1A-C592-426A-BCE5-706A24358D1B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab37.xlsx
+++ b/AfDD_2024_Annex_Table_Tab37.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C01CC55C-B941-4CE3-9408-5A90C1CCAC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FB9F31C-EEF1-4B4E-A52C-60C7C62CE124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5E01AE70-3E53-423F-B59B-C467CA9B3D3F}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{1775FA37-42DF-4CCE-BD9F-96858E0C3683}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab37" sheetId="1" r:id="rId1"/>
@@ -1122,8 +1122,8 @@
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1439,7 +1439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678D5220-A780-487B-824E-8EDD1D517FB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC22BDC7-BC65-4FDE-9248-0222ED84BBE3}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1451,7 +1451,7 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="26" width="12.42578125" style="76" bestFit="1" customWidth="1"/>
+    <col min="3" max="26" width="12.42578125" style="77" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1463,7 +1463,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -1475,7 +1475,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
+      <c r="T1" s="5"/>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
@@ -1505,7 +1505,7 @@
       <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="9" t="s">
@@ -1541,7 +1541,7 @@
       <c r="S2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="10" t="s">
         <v>20</v>
       </c>
       <c r="U2" s="9" t="s">
@@ -1585,7 +1585,7 @@
       <c r="G3" s="14">
         <v>153016</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="15">
         <v>58083</v>
       </c>
       <c r="I3" s="14">
@@ -1621,7 +1621,7 @@
       <c r="S3" s="14">
         <v>-35436</v>
       </c>
-      <c r="T3" s="14">
+      <c r="T3" s="15">
         <v>-7227</v>
       </c>
       <c r="U3" s="14">
@@ -1665,7 +1665,7 @@
       <c r="G4" s="18">
         <v>3037</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="19">
         <v>3565</v>
       </c>
       <c r="I4" s="18">
@@ -1701,7 +1701,7 @@
       <c r="S4" s="18">
         <v>-4612</v>
       </c>
-      <c r="T4" s="18">
+      <c r="T4" s="19">
         <v>-2278</v>
       </c>
       <c r="U4" s="18">
@@ -1745,7 +1745,7 @@
       <c r="G5" s="22">
         <v>1559</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="23">
         <v>1546</v>
       </c>
       <c r="I5" s="22">
@@ -1781,7 +1781,7 @@
       <c r="S5" s="22">
         <v>-1213</v>
       </c>
-      <c r="T5" s="22">
+      <c r="T5" s="23">
         <v>-1024</v>
       </c>
       <c r="U5" s="22">
@@ -1825,7 +1825,7 @@
       <c r="G6" s="22">
         <v>496</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="23">
         <v>873</v>
       </c>
       <c r="I6" s="22">
@@ -1861,7 +1861,7 @@
       <c r="S6" s="22">
         <v>-1453</v>
       </c>
-      <c r="T6" s="22">
+      <c r="T6" s="23">
         <v>-583</v>
       </c>
       <c r="U6" s="22">
@@ -1905,7 +1905,7 @@
       <c r="G7" s="22">
         <v>10684</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="23">
         <v>10481</v>
       </c>
       <c r="I7" s="22">
@@ -1941,7 +1941,7 @@
       <c r="S7" s="22">
         <v>-3350</v>
       </c>
-      <c r="T7" s="22">
+      <c r="T7" s="23">
         <v>-1568</v>
       </c>
       <c r="U7" s="22">
@@ -1985,7 +1985,7 @@
       <c r="G8" s="22">
         <v>51243</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="23">
         <v>25408</v>
       </c>
       <c r="I8" s="22">
@@ -2021,7 +2021,7 @@
       <c r="S8" s="22">
         <v>-14463</v>
       </c>
-      <c r="T8" s="22">
+      <c r="T8" s="23">
         <v>-9632</v>
       </c>
       <c r="U8" s="22">
@@ -2065,7 +2065,7 @@
       <c r="G9" s="22">
         <v>3434</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="23">
         <v>3398</v>
       </c>
       <c r="I9" s="22">
@@ -2101,7 +2101,7 @@
       <c r="S9" s="22">
         <v>-2377</v>
       </c>
-      <c r="T9" s="22">
+      <c r="T9" s="23">
         <v>-1611</v>
       </c>
       <c r="U9" s="22">
@@ -2145,7 +2145,7 @@
       <c r="G10" s="22">
         <v>337086</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="23">
         <v>446811</v>
       </c>
       <c r="I10" s="22">
@@ -2181,7 +2181,7 @@
       <c r="S10" s="22">
         <v>77078</v>
       </c>
-      <c r="T10" s="22">
+      <c r="T10" s="23">
         <v>68932</v>
       </c>
       <c r="U10" s="22">
@@ -2225,7 +2225,7 @@
       <c r="G11" s="18">
         <v>25758</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="19">
         <v>40432</v>
       </c>
       <c r="I11" s="18">
@@ -2261,7 +2261,7 @@
       <c r="S11" s="18">
         <v>-4223</v>
       </c>
-      <c r="T11" s="18">
+      <c r="T11" s="19">
         <v>1151</v>
       </c>
       <c r="U11" s="18">
@@ -2305,7 +2305,7 @@
       <c r="G12" s="26">
         <v>117729</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="27">
         <v>143435</v>
       </c>
       <c r="I12" s="26">
@@ -2341,7 +2341,7 @@
       <c r="S12" s="26">
         <v>23668</v>
       </c>
-      <c r="T12" s="26">
+      <c r="T12" s="27">
         <v>24416</v>
       </c>
       <c r="U12" s="26">
@@ -2385,7 +2385,7 @@
       <c r="G13" s="31">
         <v>704042</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="32">
         <v>734032</v>
       </c>
       <c r="I13" s="31">
@@ -2421,7 +2421,7 @@
       <c r="S13" s="31">
         <v>33619</v>
       </c>
-      <c r="T13" s="31">
+      <c r="T13" s="32">
         <v>70576</v>
       </c>
       <c r="U13" s="31">
@@ -2465,7 +2465,7 @@
       <c r="G14" s="35">
         <v>21390</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="36">
         <v>14954</v>
       </c>
       <c r="I14" s="35">
@@ -2501,7 +2501,7 @@
       <c r="S14" s="35">
         <v>1587</v>
       </c>
-      <c r="T14" s="35">
+      <c r="T14" s="36">
         <v>443</v>
       </c>
       <c r="U14" s="35">
@@ -2545,7 +2545,7 @@
       <c r="G15" s="22">
         <v>145365</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="23">
         <v>141694</v>
       </c>
       <c r="I15" s="22">
@@ -2581,7 +2581,7 @@
       <c r="S15" s="22">
         <v>40301</v>
       </c>
-      <c r="T15" s="22">
+      <c r="T15" s="23">
         <v>60718</v>
       </c>
       <c r="U15" s="22">
@@ -2625,7 +2625,7 @@
       <c r="G16" s="22">
         <v>14796</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="23">
         <v>10027</v>
       </c>
       <c r="I16" s="22">
@@ -2661,7 +2661,7 @@
       <c r="S16" s="22">
         <v>1762</v>
       </c>
-      <c r="T16" s="22">
+      <c r="T16" s="23">
         <v>2186</v>
       </c>
       <c r="U16" s="22">
@@ -2705,7 +2705,7 @@
       <c r="G17" s="39">
         <v>12154</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="40">
         <v>8196</v>
       </c>
       <c r="I17" s="39">
@@ -2741,7 +2741,7 @@
       <c r="S17" s="39">
         <v>253</v>
       </c>
-      <c r="T17" s="39">
+      <c r="T17" s="40">
         <v>2779</v>
       </c>
       <c r="U17" s="39">
@@ -2785,7 +2785,7 @@
       <c r="G18" s="39">
         <v>95885</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H18" s="40">
         <v>57146</v>
       </c>
       <c r="I18" s="39">
@@ -2821,7 +2821,7 @@
       <c r="S18" s="39">
         <v>19831</v>
       </c>
-      <c r="T18" s="39">
+      <c r="T18" s="40">
         <v>18795</v>
       </c>
       <c r="U18" s="39">
@@ -2865,7 +2865,7 @@
       <c r="G19" s="18">
         <v>192215</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="19">
         <v>113098</v>
       </c>
       <c r="I19" s="18">
@@ -2901,7 +2901,7 @@
       <c r="S19" s="18">
         <v>-9162</v>
       </c>
-      <c r="T19" s="18">
+      <c r="T19" s="19">
         <v>1950</v>
       </c>
       <c r="U19" s="18">
@@ -2945,7 +2945,7 @@
       <c r="G20" s="39">
         <v>22276</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H20" s="40">
         <v>2788</v>
       </c>
       <c r="I20" s="39">
@@ -2981,7 +2981,7 @@
       <c r="S20" s="39">
         <v>6060</v>
       </c>
-      <c r="T20" s="39">
+      <c r="T20" s="40">
         <v>-3150</v>
       </c>
       <c r="U20" s="39">
@@ -3025,7 +3025,7 @@
       <c r="G21" s="39">
         <v>16458</v>
       </c>
-      <c r="H21" s="39">
+      <c r="H21" s="40">
         <v>15593</v>
       </c>
       <c r="I21" s="39">
@@ -3061,7 +3061,7 @@
       <c r="S21" s="39">
         <v>4143</v>
       </c>
-      <c r="T21" s="39">
+      <c r="T21" s="40">
         <v>4025</v>
       </c>
       <c r="U21" s="39">
@@ -3105,7 +3105,7 @@
       <c r="G22" s="26">
         <v>13626</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="27">
         <v>3722</v>
       </c>
       <c r="I22" s="26">
@@ -3141,7 +3141,7 @@
       <c r="S22" s="26">
         <v>-3842</v>
       </c>
-      <c r="T22" s="26">
+      <c r="T22" s="27">
         <v>973</v>
       </c>
       <c r="U22" s="26">
@@ -3185,7 +3185,7 @@
       <c r="G23" s="31">
         <v>534165</v>
       </c>
-      <c r="H23" s="31">
+      <c r="H23" s="32">
         <v>367218</v>
       </c>
       <c r="I23" s="31">
@@ -3221,7 +3221,7 @@
       <c r="S23" s="31">
         <v>60933</v>
       </c>
-      <c r="T23" s="31">
+      <c r="T23" s="32">
         <v>88719</v>
       </c>
       <c r="U23" s="31">
@@ -3265,7 +3265,7 @@
       <c r="G24" s="35">
         <v>43447</v>
       </c>
-      <c r="H24" s="35">
+      <c r="H24" s="36">
         <v>11038</v>
       </c>
       <c r="I24" s="35">
@@ -3301,7 +3301,7 @@
       <c r="S24" s="35">
         <v>-21374</v>
       </c>
-      <c r="T24" s="35">
+      <c r="T24" s="36">
         <v>-122</v>
       </c>
       <c r="U24" s="35">
@@ -3345,7 +3345,7 @@
       <c r="G25" s="22">
         <v>7939</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="23">
         <v>5405</v>
       </c>
       <c r="I25" s="22">
@@ -3381,7 +3381,7 @@
       <c r="S25" s="22">
         <v>2238</v>
       </c>
-      <c r="T25" s="22">
+      <c r="T25" s="23">
         <v>1535</v>
       </c>
       <c r="U25" s="22">
@@ -3425,7 +3425,7 @@
       <c r="G26" s="22">
         <v>222057</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="23">
         <v>73864</v>
       </c>
       <c r="I26" s="22">
@@ -3461,7 +3461,7 @@
       <c r="S26" s="22">
         <v>117130</v>
       </c>
-      <c r="T26" s="22">
+      <c r="T26" s="23">
         <v>44623</v>
       </c>
       <c r="U26" s="22">
@@ -3505,7 +3505,7 @@
       <c r="G27" s="22">
         <v>466346</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H27" s="23">
         <v>231190</v>
       </c>
       <c r="I27" s="22">
@@ -3541,7 +3541,7 @@
       <c r="S27" s="22">
         <v>106856</v>
       </c>
-      <c r="T27" s="22">
+      <c r="T27" s="23">
         <v>116157</v>
       </c>
       <c r="U27" s="22">
@@ -3585,7 +3585,7 @@
       <c r="G28" s="22">
         <v>167600</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H28" s="23">
         <v>212673</v>
       </c>
       <c r="I28" s="22">
@@ -3621,7 +3621,7 @@
       <c r="S28" s="22">
         <v>15218</v>
       </c>
-      <c r="T28" s="22">
+      <c r="T28" s="23">
         <v>55971</v>
       </c>
       <c r="U28" s="22">
@@ -3665,7 +3665,7 @@
       <c r="G29" s="22">
         <v>92622</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H29" s="23">
         <v>53433</v>
       </c>
       <c r="I29" s="22">
@@ -3701,7 +3701,7 @@
       <c r="S29" s="22">
         <v>9590</v>
       </c>
-      <c r="T29" s="22">
+      <c r="T29" s="23">
         <v>7323</v>
       </c>
       <c r="U29" s="22">
@@ -3745,7 +3745,7 @@
       <c r="G30" s="22">
         <v>95612</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H30" s="23">
         <v>61065</v>
       </c>
       <c r="I30" s="22">
@@ -3781,7 +3781,7 @@
       <c r="S30" s="22">
         <v>1047</v>
       </c>
-      <c r="T30" s="22">
+      <c r="T30" s="23">
         <v>8590</v>
       </c>
       <c r="U30" s="22">
@@ -3825,7 +3825,7 @@
       <c r="G31" s="22">
         <v>25561</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H31" s="23">
         <v>21297</v>
       </c>
       <c r="I31" s="22">
@@ -3861,7 +3861,7 @@
       <c r="S31" s="22">
         <v>-841</v>
       </c>
-      <c r="T31" s="22">
+      <c r="T31" s="23">
         <v>2324</v>
       </c>
       <c r="U31" s="22">
@@ -3905,7 +3905,7 @@
       <c r="G32" s="22">
         <v>6850</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H32" s="23">
         <v>2556</v>
       </c>
       <c r="I32" s="22">
@@ -3941,7 +3941,7 @@
       <c r="S32" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="T32" s="22" t="s">
+      <c r="T32" s="23" t="s">
         <v>86</v>
       </c>
       <c r="U32" s="22" t="s">
@@ -3985,7 +3985,7 @@
       <c r="G33" s="22">
         <v>574548</v>
       </c>
-      <c r="H33" s="22">
+      <c r="H33" s="23">
         <v>147246</v>
       </c>
       <c r="I33" s="22">
@@ -4021,7 +4021,7 @@
       <c r="S33" s="22">
         <v>131276</v>
       </c>
-      <c r="T33" s="22">
+      <c r="T33" s="23">
         <v>76395</v>
       </c>
       <c r="U33" s="22">
@@ -4065,7 +4065,7 @@
       <c r="G34" s="39">
         <v>22532</v>
       </c>
-      <c r="H34" s="39">
+      <c r="H34" s="40">
         <v>17459</v>
       </c>
       <c r="I34" s="39">
@@ -4101,7 +4101,7 @@
       <c r="S34" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="T34" s="39" t="s">
+      <c r="T34" s="40" t="s">
         <v>86</v>
       </c>
       <c r="U34" s="39" t="s">
@@ -4145,7 +4145,7 @@
       <c r="G35" s="22">
         <v>585487</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35" s="23">
         <v>200925</v>
       </c>
       <c r="I35" s="22">
@@ -4181,7 +4181,7 @@
       <c r="S35" s="22">
         <v>134812</v>
       </c>
-      <c r="T35" s="22">
+      <c r="T35" s="23">
         <v>90415</v>
       </c>
       <c r="U35" s="22">
@@ -4225,7 +4225,7 @@
       <c r="G36" s="22">
         <v>47227</v>
       </c>
-      <c r="H36" s="22">
+      <c r="H36" s="23">
         <v>57856</v>
       </c>
       <c r="I36" s="22">
@@ -4261,7 +4261,7 @@
       <c r="S36" s="22">
         <v>344</v>
       </c>
-      <c r="T36" s="22">
+      <c r="T36" s="23">
         <v>4811</v>
       </c>
       <c r="U36" s="22">
@@ -4305,7 +4305,7 @@
       <c r="G37" s="26">
         <v>91204</v>
       </c>
-      <c r="H37" s="26">
+      <c r="H37" s="27">
         <v>81406</v>
       </c>
       <c r="I37" s="26">
@@ -4341,7 +4341,7 @@
       <c r="S37" s="26">
         <v>1591</v>
       </c>
-      <c r="T37" s="26">
+      <c r="T37" s="27">
         <v>4991</v>
       </c>
       <c r="U37" s="26">
@@ -4385,7 +4385,7 @@
       <c r="G38" s="31">
         <v>2449032</v>
       </c>
-      <c r="H38" s="31">
+      <c r="H38" s="32">
         <v>1177413</v>
       </c>
       <c r="I38" s="31">
@@ -4421,7 +4421,7 @@
       <c r="S38" s="31">
         <v>497887</v>
       </c>
-      <c r="T38" s="31">
+      <c r="T38" s="32">
         <v>413013</v>
       </c>
       <c r="U38" s="31">
@@ -4465,7 +4465,7 @@
       <c r="G39" s="14">
         <v>1200326</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="15">
         <v>479254</v>
       </c>
       <c r="I39" s="14">
@@ -4501,7 +4501,7 @@
       <c r="S39" s="14">
         <v>-71173</v>
       </c>
-      <c r="T39" s="14">
+      <c r="T39" s="15">
         <v>84324</v>
       </c>
       <c r="U39" s="14">
@@ -4545,7 +4545,7 @@
       <c r="G40" s="22">
         <v>2203376</v>
       </c>
-      <c r="H40" s="22">
+      <c r="H40" s="23">
         <v>1016609</v>
       </c>
       <c r="I40" s="22">
@@ -4581,7 +4581,7 @@
       <c r="S40" s="22">
         <v>336063</v>
       </c>
-      <c r="T40" s="22">
+      <c r="T40" s="23">
         <v>467238</v>
       </c>
       <c r="U40" s="22">
@@ -4625,7 +4625,7 @@
       <c r="G41" s="39">
         <v>91555</v>
       </c>
-      <c r="H41" s="39">
+      <c r="H41" s="40">
         <v>51106</v>
       </c>
       <c r="I41" s="39">
@@ -4661,7 +4661,7 @@
       <c r="S41" s="39">
         <v>13903</v>
       </c>
-      <c r="T41" s="39">
+      <c r="T41" s="40">
         <v>8754</v>
       </c>
       <c r="U41" s="39">
@@ -4705,7 +4705,7 @@
       <c r="G42" s="39">
         <v>27861</v>
       </c>
-      <c r="H42" s="39">
+      <c r="H42" s="40">
         <v>7588</v>
       </c>
       <c r="I42" s="39">
@@ -4741,7 +4741,7 @@
       <c r="S42" s="39">
         <v>-913</v>
       </c>
-      <c r="T42" s="39">
+      <c r="T42" s="40">
         <v>1244</v>
       </c>
       <c r="U42" s="39">
@@ -4785,7 +4785,7 @@
       <c r="G43" s="22">
         <v>2476087</v>
       </c>
-      <c r="H43" s="22">
+      <c r="H43" s="23">
         <v>625588</v>
       </c>
       <c r="I43" s="22">
@@ -4821,7 +4821,7 @@
       <c r="S43" s="22">
         <v>234006</v>
       </c>
-      <c r="T43" s="22">
+      <c r="T43" s="23">
         <v>135615</v>
       </c>
       <c r="U43" s="22">
@@ -4865,7 +4865,7 @@
       <c r="G44" s="26">
         <v>482639</v>
       </c>
-      <c r="H44" s="26">
+      <c r="H44" s="27">
         <v>188190</v>
       </c>
       <c r="I44" s="26">
@@ -4901,7 +4901,7 @@
       <c r="S44" s="26">
         <v>-5167</v>
       </c>
-      <c r="T44" s="26">
+      <c r="T44" s="27">
         <v>49529</v>
       </c>
       <c r="U44" s="26">
@@ -4945,7 +4945,7 @@
       <c r="G45" s="31">
         <v>6481844</v>
       </c>
-      <c r="H45" s="31">
+      <c r="H45" s="32">
         <v>2368335</v>
       </c>
       <c r="I45" s="31">
@@ -4981,7 +4981,7 @@
       <c r="S45" s="31">
         <v>506719</v>
       </c>
-      <c r="T45" s="31">
+      <c r="T45" s="32">
         <v>746704</v>
       </c>
       <c r="U45" s="31">
@@ -5025,7 +5025,7 @@
       <c r="G46" s="35">
         <v>18286</v>
       </c>
-      <c r="H46" s="35">
+      <c r="H46" s="36">
         <v>17746</v>
       </c>
       <c r="I46" s="35">
@@ -5061,7 +5061,7 @@
       <c r="S46" s="35">
         <v>106</v>
       </c>
-      <c r="T46" s="35">
+      <c r="T46" s="36">
         <v>2150</v>
       </c>
       <c r="U46" s="35">
@@ -5105,7 +5105,7 @@
       <c r="G47" s="22">
         <v>26066</v>
       </c>
-      <c r="H47" s="22">
+      <c r="H47" s="23">
         <v>9393</v>
       </c>
       <c r="I47" s="22">
@@ -5141,7 +5141,7 @@
       <c r="S47" s="22">
         <v>483</v>
       </c>
-      <c r="T47" s="22">
+      <c r="T47" s="23">
         <v>731</v>
       </c>
       <c r="U47" s="22">
@@ -5185,7 +5185,7 @@
       <c r="G48" s="39">
         <v>131577</v>
       </c>
-      <c r="H48" s="39">
+      <c r="H48" s="40">
         <v>31984</v>
       </c>
       <c r="I48" s="39">
@@ -5221,7 +5221,7 @@
       <c r="S48" s="39">
         <v>-5558</v>
       </c>
-      <c r="T48" s="39">
+      <c r="T48" s="40">
         <v>18028</v>
       </c>
       <c r="U48" s="39">
@@ -5265,7 +5265,7 @@
       <c r="G49" s="22">
         <v>145264</v>
       </c>
-      <c r="H49" s="22">
+      <c r="H49" s="23">
         <v>78679</v>
       </c>
       <c r="I49" s="22">
@@ -5301,7 +5301,7 @@
       <c r="S49" s="22">
         <v>35692</v>
       </c>
-      <c r="T49" s="22">
+      <c r="T49" s="23">
         <v>29292</v>
       </c>
       <c r="U49" s="22">
@@ -5345,7 +5345,7 @@
       <c r="G50" s="22">
         <v>64259</v>
       </c>
-      <c r="H50" s="22">
+      <c r="H50" s="23">
         <v>20587</v>
       </c>
       <c r="I50" s="22">
@@ -5381,7 +5381,7 @@
       <c r="S50" s="22">
         <v>16370</v>
       </c>
-      <c r="T50" s="22">
+      <c r="T50" s="23">
         <v>8656</v>
       </c>
       <c r="U50" s="22">
@@ -5425,7 +5425,7 @@
       <c r="G51" s="18">
         <v>253281</v>
       </c>
-      <c r="H51" s="18">
+      <c r="H51" s="19">
         <v>215161</v>
       </c>
       <c r="I51" s="18">
@@ -5461,7 +5461,7 @@
       <c r="S51" s="18">
         <v>24495</v>
       </c>
-      <c r="T51" s="18">
+      <c r="T51" s="19">
         <v>81341</v>
       </c>
       <c r="U51" s="18">
@@ -5505,7 +5505,7 @@
       <c r="G52" s="22">
         <v>101904</v>
       </c>
-      <c r="H52" s="22">
+      <c r="H52" s="23">
         <v>37538</v>
       </c>
       <c r="I52" s="22">
@@ -5541,7 +5541,7 @@
       <c r="S52" s="22">
         <v>37213</v>
       </c>
-      <c r="T52" s="22">
+      <c r="T52" s="23">
         <v>19901</v>
       </c>
       <c r="U52" s="22">
@@ -5585,7 +5585,7 @@
       <c r="G53" s="22">
         <v>35791</v>
       </c>
-      <c r="H53" s="22">
+      <c r="H53" s="23">
         <v>8133</v>
       </c>
       <c r="I53" s="22">
@@ -5621,7 +5621,7 @@
       <c r="S53" s="22">
         <v>-3387</v>
       </c>
-      <c r="T53" s="22">
+      <c r="T53" s="23">
         <v>1386</v>
       </c>
       <c r="U53" s="22">
@@ -5665,7 +5665,7 @@
       <c r="G54" s="22">
         <v>59336</v>
       </c>
-      <c r="H54" s="22">
+      <c r="H54" s="23">
         <v>63954</v>
       </c>
       <c r="I54" s="22">
@@ -5701,7 +5701,7 @@
       <c r="S54" s="22">
         <v>-399</v>
       </c>
-      <c r="T54" s="22">
+      <c r="T54" s="23">
         <v>29342</v>
       </c>
       <c r="U54" s="22">
@@ -5745,7 +5745,7 @@
       <c r="G55" s="22">
         <v>113749</v>
       </c>
-      <c r="H55" s="22">
+      <c r="H55" s="23">
         <v>22563</v>
       </c>
       <c r="I55" s="22">
@@ -5781,7 +5781,7 @@
       <c r="S55" s="22">
         <v>18667</v>
       </c>
-      <c r="T55" s="22">
+      <c r="T55" s="23">
         <v>7308</v>
       </c>
       <c r="U55" s="22">
@@ -5825,7 +5825,7 @@
       <c r="G56" s="22">
         <v>8550</v>
       </c>
-      <c r="H56" s="22">
+      <c r="H56" s="23">
         <v>6529</v>
       </c>
       <c r="I56" s="22">
@@ -5861,7 +5861,7 @@
       <c r="S56" s="22">
         <v>-419</v>
       </c>
-      <c r="T56" s="22">
+      <c r="T56" s="23">
         <v>932</v>
       </c>
       <c r="U56" s="22">
@@ -5905,7 +5905,7 @@
       <c r="G57" s="22">
         <v>387412</v>
       </c>
-      <c r="H57" s="22">
+      <c r="H57" s="23">
         <v>531785</v>
       </c>
       <c r="I57" s="22">
@@ -5941,7 +5941,7 @@
       <c r="S57" s="22">
         <v>119363</v>
       </c>
-      <c r="T57" s="22">
+      <c r="T57" s="23">
         <v>179516</v>
       </c>
       <c r="U57" s="22">
@@ -5985,7 +5985,7 @@
       <c r="G58" s="22">
         <v>297357</v>
       </c>
-      <c r="H58" s="22">
+      <c r="H58" s="23">
         <v>95441</v>
       </c>
       <c r="I58" s="22">
@@ -6021,7 +6021,7 @@
       <c r="S58" s="22">
         <v>81994</v>
       </c>
-      <c r="T58" s="22">
+      <c r="T58" s="23">
         <v>33917</v>
       </c>
       <c r="U58" s="22">
@@ -6065,7 +6065,7 @@
       <c r="G59" s="22">
         <v>44245</v>
       </c>
-      <c r="H59" s="22">
+      <c r="H59" s="23">
         <v>49801</v>
       </c>
       <c r="I59" s="22">
@@ -6101,7 +6101,7 @@
       <c r="S59" s="22">
         <v>-5772</v>
       </c>
-      <c r="T59" s="22">
+      <c r="T59" s="23">
         <v>19264</v>
       </c>
       <c r="U59" s="22">
@@ -6145,7 +6145,7 @@
       <c r="G60" s="44">
         <v>55345</v>
       </c>
-      <c r="H60" s="44">
+      <c r="H60" s="45">
         <v>37887</v>
       </c>
       <c r="I60" s="44">
@@ -6181,7 +6181,7 @@
       <c r="S60" s="44">
         <v>12260</v>
       </c>
-      <c r="T60" s="44">
+      <c r="T60" s="45">
         <v>17507</v>
       </c>
       <c r="U60" s="44">
@@ -6225,7 +6225,7 @@
       <c r="G61" s="31">
         <v>1742422</v>
       </c>
-      <c r="H61" s="31">
+      <c r="H61" s="32">
         <v>1227181</v>
       </c>
       <c r="I61" s="31">
@@ -6261,7 +6261,7 @@
       <c r="S61" s="31">
         <v>331108</v>
       </c>
-      <c r="T61" s="31">
+      <c r="T61" s="32">
         <v>449271</v>
       </c>
       <c r="U61" s="31">
@@ -6305,7 +6305,7 @@
       <c r="G62" s="49">
         <v>11911505</v>
       </c>
-      <c r="H62" s="49">
+      <c r="H62" s="50">
         <v>5874179</v>
       </c>
       <c r="I62" s="49">
@@ -6341,7 +6341,7 @@
       <c r="S62" s="49">
         <v>1430266</v>
       </c>
-      <c r="T62" s="49">
+      <c r="T62" s="50">
         <v>1768283</v>
       </c>
       <c r="U62" s="49">
@@ -6385,7 +6385,7 @@
       <c r="G63" s="53">
         <v>34827778</v>
       </c>
-      <c r="H63" s="53">
+      <c r="H63" s="54">
         <v>31386935</v>
       </c>
       <c r="I63" s="53" t="s">
@@ -6421,7 +6421,7 @@
       <c r="S63" s="53">
         <v>3880604</v>
       </c>
-      <c r="T63" s="53">
+      <c r="T63" s="54">
         <v>6923867</v>
       </c>
       <c r="U63" s="53" t="s">
@@ -6465,7 +6465,7 @@
       <c r="G64" s="58">
         <v>6152444</v>
       </c>
-      <c r="H64" s="58">
+      <c r="H64" s="59">
         <v>4062856</v>
       </c>
       <c r="I64" s="58" t="s">
@@ -6501,7 +6501,7 @@
       <c r="S64" s="58">
         <v>541438</v>
       </c>
-      <c r="T64" s="58">
+      <c r="T64" s="59">
         <v>1345556</v>
       </c>
       <c r="U64" s="58" t="s">
@@ -6545,7 +6545,7 @@
       <c r="G65" s="61">
         <v>18683572</v>
       </c>
-      <c r="H65" s="61">
+      <c r="H65" s="62">
         <v>16204097</v>
       </c>
       <c r="I65" s="61" t="s">
@@ -6581,7 +6581,7 @@
       <c r="S65" s="61">
         <v>4615282</v>
       </c>
-      <c r="T65" s="61">
+      <c r="T65" s="62">
         <v>4870311</v>
       </c>
       <c r="U65" s="61" t="s">
@@ -6625,7 +6625,7 @@
       <c r="G66" s="65">
         <v>46739283</v>
       </c>
-      <c r="H66" s="65">
+      <c r="H66" s="66">
         <v>37261114</v>
       </c>
       <c r="I66" s="65">
@@ -6661,7 +6661,7 @@
       <c r="S66" s="65">
         <v>5310870</v>
       </c>
-      <c r="T66" s="65">
+      <c r="T66" s="66">
         <v>8692150</v>
       </c>
       <c r="U66" s="65">
@@ -6705,7 +6705,7 @@
       <c r="G67" s="61">
         <v>5526178</v>
       </c>
-      <c r="H67" s="61">
+      <c r="H67" s="62">
         <v>2681949</v>
       </c>
       <c r="I67" s="61">
@@ -6741,7 +6741,7 @@
       <c r="S67" s="61">
         <v>849649</v>
       </c>
-      <c r="T67" s="61">
+      <c r="T67" s="62">
         <v>959091</v>
       </c>
       <c r="U67" s="61">
@@ -6785,7 +6785,7 @@
       <c r="G68" s="61">
         <v>8293455</v>
       </c>
-      <c r="H68" s="61">
+      <c r="H68" s="62">
         <v>3477025</v>
       </c>
       <c r="I68" s="61">
@@ -6821,7 +6821,7 @@
       <c r="S68" s="61">
         <v>1281054</v>
       </c>
-      <c r="T68" s="61">
+      <c r="T68" s="62">
         <v>1282092</v>
       </c>
       <c r="U68" s="61">
@@ -6865,7 +6865,7 @@
       <c r="G69" s="61">
         <v>567729</v>
       </c>
-      <c r="H69" s="61">
+      <c r="H69" s="62">
         <v>518743</v>
       </c>
       <c r="I69" s="61">
@@ -6901,7 +6901,7 @@
       <c r="S69" s="61">
         <v>8737</v>
       </c>
-      <c r="T69" s="61">
+      <c r="T69" s="62">
         <v>70490</v>
       </c>
       <c r="U69" s="61">
@@ -6945,7 +6945,7 @@
       <c r="G70" s="61">
         <v>712742</v>
       </c>
-      <c r="H70" s="61">
+      <c r="H70" s="62">
         <v>446598</v>
       </c>
       <c r="I70" s="61">
@@ -6981,7 +6981,7 @@
       <c r="S70" s="61">
         <v>24656</v>
       </c>
-      <c r="T70" s="61">
+      <c r="T70" s="62">
         <v>83816</v>
       </c>
       <c r="U70" s="61">
@@ -7025,7 +7025,7 @@
       <c r="G71" s="61">
         <v>1742422</v>
       </c>
-      <c r="H71" s="61">
+      <c r="H71" s="62">
         <v>1227181</v>
       </c>
       <c r="I71" s="61">
@@ -7061,7 +7061,7 @@
       <c r="S71" s="61">
         <v>331108</v>
       </c>
-      <c r="T71" s="61">
+      <c r="T71" s="62">
         <v>449271</v>
       </c>
       <c r="U71" s="61">
@@ -7105,7 +7105,7 @@
       <c r="G72" s="61">
         <v>1915656</v>
       </c>
-      <c r="H72" s="61">
+      <c r="H72" s="62">
         <v>896304</v>
       </c>
       <c r="I72" s="61">
@@ -7141,7 +7141,7 @@
       <c r="S72" s="61">
         <v>391991</v>
       </c>
-      <c r="T72" s="61">
+      <c r="T72" s="62">
         <v>345464</v>
       </c>
       <c r="U72" s="61">
@@ -7185,7 +7185,7 @@
       <c r="G73" s="61">
         <v>1182015</v>
       </c>
-      <c r="H73" s="61">
+      <c r="H73" s="62">
         <v>1033078</v>
       </c>
       <c r="I73" s="61">
@@ -7221,7 +7221,7 @@
       <c r="S73" s="61">
         <v>14064</v>
       </c>
-      <c r="T73" s="61">
+      <c r="T73" s="62">
         <v>93128</v>
       </c>
       <c r="U73" s="61">
@@ -7265,7 +7265,7 @@
       <c r="G74" s="61">
         <v>4278468</v>
       </c>
-      <c r="H74" s="61">
+      <c r="H74" s="62">
         <v>1351726</v>
       </c>
       <c r="I74" s="61">
@@ -7301,7 +7301,7 @@
       <c r="S74" s="61">
         <v>170656</v>
       </c>
-      <c r="T74" s="61">
+      <c r="T74" s="62">
         <v>279466</v>
       </c>
       <c r="U74" s="61">
@@ -7345,7 +7345,7 @@
       <c r="G75" s="53">
         <v>385253</v>
       </c>
-      <c r="H75" s="53">
+      <c r="H75" s="54">
         <v>127330</v>
       </c>
       <c r="I75" s="53">
@@ -7381,7 +7381,7 @@
       <c r="S75" s="53">
         <v>-62686</v>
       </c>
-      <c r="T75" s="53">
+      <c r="T75" s="54">
         <v>3528</v>
       </c>
       <c r="U75" s="53">
@@ -7425,7 +7425,7 @@
       <c r="G76" s="69">
         <v>3973085</v>
       </c>
-      <c r="H76" s="69">
+      <c r="H76" s="70">
         <v>4238963</v>
       </c>
       <c r="I76" s="69" t="s">
@@ -7461,7 +7461,7 @@
       <c r="S76" s="69">
         <v>-69538</v>
       </c>
-      <c r="T76" s="69">
+      <c r="T76" s="70">
         <v>1001114</v>
       </c>
       <c r="U76" s="69" t="s">
@@ -7505,7 +7505,7 @@
       <c r="G77" s="61">
         <v>4937201</v>
       </c>
-      <c r="H77" s="61">
+      <c r="H77" s="62">
         <v>3549429</v>
       </c>
       <c r="I77" s="61" t="s">
@@ -7541,7 +7541,7 @@
       <c r="S77" s="61">
         <v>130624</v>
       </c>
-      <c r="T77" s="61">
+      <c r="T77" s="62">
         <v>1195368</v>
       </c>
       <c r="U77" s="61" t="s">
@@ -7585,7 +7585,7 @@
       <c r="G78" s="61">
         <v>4093463</v>
       </c>
-      <c r="H78" s="61">
+      <c r="H78" s="62">
         <v>3701180</v>
       </c>
       <c r="I78" s="61" t="s">
@@ -7621,7 +7621,7 @@
       <c r="S78" s="61">
         <v>-703179</v>
       </c>
-      <c r="T78" s="61">
+      <c r="T78" s="62">
         <v>313355</v>
       </c>
       <c r="U78" s="61" t="s">
@@ -7665,7 +7665,7 @@
       <c r="G79" s="65">
         <v>8719599</v>
       </c>
-      <c r="H79" s="65">
+      <c r="H79" s="66">
         <v>9273311</v>
       </c>
       <c r="I79" s="65" t="s">
@@ -7701,7 +7701,7 @@
       <c r="S79" s="65">
         <v>-791711</v>
       </c>
-      <c r="T79" s="65">
+      <c r="T79" s="66">
         <v>955427</v>
       </c>
       <c r="U79" s="65" t="s">
@@ -7745,7 +7745,7 @@
       <c r="G80" s="61">
         <v>1773640</v>
       </c>
-      <c r="H80" s="61">
+      <c r="H80" s="62">
         <v>729197</v>
       </c>
       <c r="I80" s="61">
@@ -7781,7 +7781,7 @@
       <c r="S80" s="61">
         <v>-68890</v>
       </c>
-      <c r="T80" s="61">
+      <c r="T80" s="62">
         <v>127572</v>
       </c>
       <c r="U80" s="61">
@@ -7825,7 +7825,7 @@
       <c r="G81" s="61">
         <v>5582411</v>
       </c>
-      <c r="H81" s="61">
+      <c r="H81" s="62">
         <v>3931747</v>
       </c>
       <c r="I81" s="61" t="s">
@@ -7861,7 +7861,7 @@
       <c r="S81" s="61">
         <v>216530</v>
       </c>
-      <c r="T81" s="61">
+      <c r="T81" s="62">
         <v>718565</v>
       </c>
       <c r="U81" s="61" t="s">
@@ -7905,7 +7905,7 @@
       <c r="G82" s="61">
         <v>10137865</v>
       </c>
-      <c r="H82" s="61">
+      <c r="H82" s="62">
         <v>5144982</v>
       </c>
       <c r="I82" s="61">
@@ -7941,7 +7941,7 @@
       <c r="S82" s="61">
         <v>1499156</v>
       </c>
-      <c r="T82" s="61">
+      <c r="T82" s="62">
         <v>1640711</v>
       </c>
       <c r="U82" s="61">
@@ -7985,7 +7985,7 @@
       <c r="G83" s="53">
         <v>29245367</v>
       </c>
-      <c r="H83" s="53">
+      <c r="H83" s="54">
         <v>27455188</v>
       </c>
       <c r="I83" s="53" t="s">
@@ -8021,7 +8021,7 @@
       <c r="S83" s="53">
         <v>3664074</v>
       </c>
-      <c r="T83" s="53">
+      <c r="T83" s="54">
         <v>6205302</v>
       </c>
       <c r="U83" s="53" t="s">
@@ -8065,7 +8065,7 @@
       <c r="G84" s="69">
         <v>2790180</v>
       </c>
-      <c r="H84" s="69">
+      <c r="H84" s="70">
         <v>1227831</v>
       </c>
       <c r="I84" s="69">
@@ -8101,7 +8101,7 @@
       <c r="S84" s="69">
         <v>514844</v>
       </c>
-      <c r="T84" s="69">
+      <c r="T84" s="70">
         <v>423512</v>
       </c>
       <c r="U84" s="69">
@@ -8145,7 +8145,7 @@
       <c r="G85" s="61">
         <v>4287276</v>
       </c>
-      <c r="H85" s="61">
+      <c r="H85" s="62">
         <v>1234546</v>
       </c>
       <c r="I85" s="61" t="s">
@@ -8181,7 +8181,7 @@
       <c r="S85" s="61">
         <v>3594535</v>
       </c>
-      <c r="T85" s="61">
+      <c r="T85" s="62">
         <v>990945</v>
       </c>
       <c r="U85" s="61" t="s">
@@ -8225,7 +8225,7 @@
       <c r="G86" s="61">
         <v>8545017</v>
       </c>
-      <c r="H86" s="61">
+      <c r="H86" s="62">
         <v>4059466</v>
       </c>
       <c r="I86" s="61">
@@ -8261,7 +8261,7 @@
       <c r="S86" s="61">
         <v>820180</v>
       </c>
-      <c r="T86" s="61">
+      <c r="T86" s="62">
         <v>1261509</v>
       </c>
       <c r="U86" s="61">
@@ -8305,7 +8305,7 @@
       <c r="G87" s="61">
         <v>11002801</v>
       </c>
-      <c r="H87" s="61">
+      <c r="H87" s="62">
         <v>11341024</v>
       </c>
       <c r="I87" s="61" t="s">
@@ -8341,7 +8341,7 @@
       <c r="S87" s="61">
         <v>575532</v>
       </c>
-      <c r="T87" s="61">
+      <c r="T87" s="62">
         <v>2747401</v>
       </c>
       <c r="U87" s="61" t="s">
@@ -8385,7 +8385,7 @@
       <c r="G88" s="61">
         <v>569458</v>
       </c>
-      <c r="H88" s="61">
+      <c r="H88" s="62">
         <v>584326</v>
       </c>
       <c r="I88" s="61">
@@ -8421,7 +8421,7 @@
       <c r="S88" s="61">
         <v>95242</v>
       </c>
-      <c r="T88" s="61">
+      <c r="T88" s="62">
         <v>83262</v>
       </c>
       <c r="U88" s="61">
@@ -8465,7 +8465,7 @@
       <c r="G89" s="61">
         <v>10485037</v>
       </c>
-      <c r="H89" s="61">
+      <c r="H89" s="62">
         <v>8979531</v>
       </c>
       <c r="I89" s="61" t="s">
@@ -8501,7 +8501,7 @@
       <c r="S89" s="61">
         <v>333768</v>
       </c>
-      <c r="T89" s="61">
+      <c r="T89" s="62">
         <v>2082218</v>
       </c>
       <c r="U89" s="61" t="s">
@@ -8545,7 +8545,7 @@
       <c r="G90" s="65">
         <v>8518896</v>
       </c>
-      <c r="H90" s="65">
+      <c r="H90" s="66">
         <v>9255873</v>
       </c>
       <c r="I90" s="65">
@@ -8581,7 +8581,7 @@
       <c r="S90" s="65">
         <v>-934570</v>
       </c>
-      <c r="T90" s="65">
+      <c r="T90" s="66">
         <v>786627</v>
       </c>
       <c r="U90" s="65" t="s">
@@ -8625,7 +8625,7 @@
       <c r="G91" s="61">
         <v>3527097</v>
       </c>
-      <c r="H91" s="61">
+      <c r="H91" s="62">
         <v>1563553</v>
       </c>
       <c r="I91" s="61">
@@ -8661,7 +8661,7 @@
       <c r="S91" s="61">
         <v>569498</v>
       </c>
-      <c r="T91" s="61">
+      <c r="T91" s="62">
         <v>481262</v>
       </c>
       <c r="U91" s="61">
@@ -8705,7 +8705,7 @@
       <c r="G92" s="61">
         <v>2115817</v>
       </c>
-      <c r="H92" s="61">
+      <c r="H92" s="62">
         <v>1051543</v>
       </c>
       <c r="I92" s="61" t="s">
@@ -8741,7 +8741,7 @@
       <c r="S92" s="61">
         <v>552651</v>
       </c>
-      <c r="T92" s="61">
+      <c r="T92" s="62">
         <v>408654</v>
       </c>
       <c r="U92" s="61" t="s">
@@ -8785,7 +8785,7 @@
       <c r="G93" s="61">
         <v>326903</v>
       </c>
-      <c r="H93" s="61">
+      <c r="H93" s="62">
         <v>118498</v>
       </c>
       <c r="I93" s="61">
@@ -8821,7 +8821,7 @@
       <c r="S93" s="61">
         <v>-33114</v>
       </c>
-      <c r="T93" s="61">
+      <c r="T93" s="62">
         <v>28855</v>
       </c>
       <c r="U93" s="61">
@@ -8865,7 +8865,7 @@
       <c r="G94" s="61">
         <v>1480951</v>
       </c>
-      <c r="H94" s="61">
+      <c r="H94" s="62">
         <v>735730</v>
       </c>
       <c r="I94" s="61" t="s">
@@ -8901,7 +8901,7 @@
       <c r="S94" s="61">
         <v>157134</v>
       </c>
-      <c r="T94" s="61">
+      <c r="T94" s="62">
         <v>163443</v>
       </c>
       <c r="U94" s="61" t="s">
@@ -8945,7 +8945,7 @@
       <c r="G95" s="61">
         <v>961611</v>
       </c>
-      <c r="H95" s="61">
+      <c r="H95" s="62">
         <v>623346</v>
       </c>
       <c r="I95" s="61">
@@ -8981,7 +8981,7 @@
       <c r="S95" s="61">
         <v>138756</v>
       </c>
-      <c r="T95" s="61">
+      <c r="T95" s="62">
         <v>157965</v>
       </c>
       <c r="U95" s="61">
@@ -9025,7 +9025,7 @@
       <c r="G96" s="53">
         <v>3902152</v>
       </c>
-      <c r="H96" s="53">
+      <c r="H96" s="54">
         <v>1799994</v>
       </c>
       <c r="I96" s="53" t="s">
@@ -9061,7 +9061,7 @@
       <c r="S96" s="53">
         <v>-15491</v>
       </c>
-      <c r="T96" s="53">
+      <c r="T96" s="54">
         <v>290450</v>
       </c>
       <c r="U96" s="53" t="s">
@@ -9105,7 +9105,7 @@
       <c r="G97" s="69">
         <v>2591174</v>
       </c>
-      <c r="H97" s="69">
+      <c r="H97" s="70">
         <v>2007761</v>
       </c>
       <c r="I97" s="69">
@@ -9141,7 +9141,7 @@
       <c r="S97" s="69">
         <v>364811</v>
       </c>
-      <c r="T97" s="69">
+      <c r="T97" s="70">
         <v>584468</v>
       </c>
       <c r="U97" s="69">
@@ -9185,7 +9185,7 @@
       <c r="G98" s="65">
         <v>3582556</v>
       </c>
-      <c r="H98" s="65">
+      <c r="H98" s="66">
         <v>2917128</v>
       </c>
       <c r="I98" s="65" t="s">
@@ -9221,7 +9221,7 @@
       <c r="S98" s="65">
         <v>413349</v>
       </c>
-      <c r="T98" s="65">
+      <c r="T98" s="66">
         <v>877829</v>
       </c>
       <c r="U98" s="65" t="s">
@@ -9583,7 +9583,7 @@
       <c r="Z110" s="74"/>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B111" s="77" t="s">
+      <c r="B111" s="76" t="s">
         <v>188</v>
       </c>
       <c r="C111" s="74"/>
@@ -9612,7 +9612,7 @@
       <c r="Z111" s="74"/>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="76" t="s">
         <v>185</v>
       </c>
       <c r="C112" s="74"/>
@@ -9696,12 +9696,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{7A4CE5F5-D123-48E3-9B35-459AEBEE2F70}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{54E7B354-BC87-46C3-94C9-F9AE4B7564A3}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{8D965FDF-07E0-4DC9-98A0-28916ABA38E0}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{F5C0D5D3-8C7C-4CE9-B75A-C084D10F0E00}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{19184548-527D-4EA1-8391-5A5833BCC562}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{41F33E1A-C592-426A-BCE5-706A24358D1B}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{F77C3820-68AA-4F24-9CA5-C29502A9A38A}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{A093574B-767D-4FAF-A1B2-89385731A1D2}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{F1C292D6-55F0-4B9B-A7B5-5D2C56DE1C07}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{3458E758-AB3A-417B-B992-E37F35E025D9}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{8E14A6C6-61D7-48D1-B96B-8D4FB721EAF9}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{2127FB4C-6327-4AC4-BE90-182F3720B98C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab37.xlsx
+++ b/AfDD_2024_Annex_Table_Tab37.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FB9F31C-EEF1-4B4E-A52C-60C7C62CE124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ED576D4-3A56-409D-8E06-82461014139F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{1775FA37-42DF-4CCE-BD9F-96858E0C3683}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{6ABAA5D5-E751-4DDF-A25C-47EA9B1E2687}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab37" sheetId="1" r:id="rId1"/>
@@ -1439,7 +1439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC22BDC7-BC65-4FDE-9248-0222ED84BBE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D36A36-7921-4A67-85D2-8010AB34FEA1}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9696,12 +9696,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{F77C3820-68AA-4F24-9CA5-C29502A9A38A}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{A093574B-767D-4FAF-A1B2-89385731A1D2}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{F1C292D6-55F0-4B9B-A7B5-5D2C56DE1C07}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{3458E758-AB3A-417B-B992-E37F35E025D9}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{8E14A6C6-61D7-48D1-B96B-8D4FB721EAF9}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{2127FB4C-6327-4AC4-BE90-182F3720B98C}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{E628A634-8D42-467B-A1D9-0EFA5390907A}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{26DC9297-7664-4DC5-A81C-CAC1CD790D96}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{D7754858-75E1-4E92-854A-C62780D2949A}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{69D05B68-E755-4C56-A809-4B8E96DE2EAB}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{F4B9E1F9-5FA7-4824-AE24-721A67926019}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{01F826AE-8EC2-42B0-8955-7902D87FCC50}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
